--- a/service/Resources/departamentos.xlsx
+++ b/service/Resources/departamentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\edu-pilo\service\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Antioquia</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Santander </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valle de Cauca </t>
   </si>
   <si>
     <t xml:space="preserve">Valle del Cauca </t>
@@ -387,17 +384,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -463,11 +460,6 @@
     <row r="14" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
